--- a/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
+++ b/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UI Automation Farmer\AndroidAutomation_Farmer\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neha\Downloads\AndroidAutomation_Updated\AndroidAutomation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D972378-CA13-4879-ADE8-71DFF9919A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D1A4CE-40AE-4DA1-BF4B-5C06396E5375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A0974BDA-194C-46DE-AA56-634941102C9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="9" xr2:uid="{A0974BDA-194C-46DE-AA56-634941102C9E}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
@@ -18,27 +18,23 @@
     <sheet name="AddInsemination" sheetId="3" r:id="rId3"/>
     <sheet name="AddPD" sheetId="4" r:id="rId4"/>
     <sheet name="AddCalving" sheetId="5" r:id="rId5"/>
+    <sheet name="AddDeworming" sheetId="6" r:id="rId6"/>
+    <sheet name="ViewHeatData" sheetId="7" r:id="rId7"/>
+    <sheet name="ViewActivity" sheetId="9" r:id="rId8"/>
+    <sheet name="DeleteActivity" sheetId="8" r:id="rId9"/>
+    <sheet name="EditActivity" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="142">
   <si>
     <t>testcase</t>
   </si>
@@ -350,6 +346,120 @@
   </si>
   <si>
     <t>RegisterCattle_Bull1</t>
+  </si>
+  <si>
+    <t>RegisterCattle_Heifer1</t>
+  </si>
+  <si>
+    <t>RegisterCattle_Heifer2</t>
+  </si>
+  <si>
+    <t>RegisterCattle_MilkingorDryCattle1</t>
+  </si>
+  <si>
+    <t>RegisterCattle_MilkingorDryCattle2</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>pqr</t>
+  </si>
+  <si>
+    <t>AddDeworming_Cattle</t>
+  </si>
+  <si>
+    <t>CattleName</t>
+  </si>
+  <si>
+    <t>Felbendazole</t>
+  </si>
+  <si>
+    <t>Dewormer</t>
+  </si>
+  <si>
+    <t>ViewHeatData_Milking</t>
+  </si>
+  <si>
+    <t>HeatType</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>16 Nov 2021</t>
+  </si>
+  <si>
+    <t>DeleteActivity_Heat</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ViewActivity_Insemination</t>
+  </si>
+  <si>
+    <t>Bull_ID</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>20 Nov 2021</t>
+  </si>
+  <si>
+    <t>DeleteActivity_Insemination</t>
+  </si>
+  <si>
+    <t>ViewActivity_Calving</t>
+  </si>
+  <si>
+    <t>Alx</t>
+  </si>
+  <si>
+    <t>17 Dec 2021</t>
+  </si>
+  <si>
+    <t>ViewActivity_CalvingData</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>TagNumber</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>cow1</t>
+  </si>
+  <si>
+    <t>Gir</t>
+  </si>
+  <si>
+    <t>Dam</t>
+  </si>
+  <si>
+    <t>8841</t>
+  </si>
+  <si>
+    <t>6450</t>
+  </si>
+  <si>
+    <t>cowx</t>
+  </si>
+  <si>
+    <t>EditActivity_CattleProfile</t>
   </si>
 </sst>
 </file>
@@ -420,13 +530,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,15 +867,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B191212-D0EB-4F91-9304-4EC4F684A4DE}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="33" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,58 +898,62 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -848,38 +978,40 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -902,34 +1034,36 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
@@ -952,13 +1086,13 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -970,8 +1104,10 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
@@ -990,52 +1126,54 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="Q5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1054,46 +1192,48 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
+      <c r="W6" s="2"/>
+      <c r="X6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1110,48 +1250,50 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="K7" s="3"/>
       <c r="L7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="2"/>
+      <c r="X7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>103</v>
       </c>
@@ -1173,10 +1315,10 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1190,8 +1332,10 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>68</v>
       </c>
@@ -1215,10 +1359,10 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1232,8 +1376,10 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
@@ -1253,12 +1399,14 @@
         <v>45</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1272,8 +1420,10 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -1292,43 +1442,132 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="K11" s="3"/>
       <c r="L11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="2"/>
+      <c r="S11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="X11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="Z11" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DF8867-CE10-4DBD-A4B3-98C41714B37F}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1340,14 +1579,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1600,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1376,7 +1615,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1404,16 +1643,16 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1672,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>83</v>
       </c>
@@ -1453,7 +1692,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -1471,7 +1710,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>99</v>
       </c>
@@ -1501,13 +1740,13 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="3" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1757,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>89</v>
       </c>
@@ -1529,7 +1768,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>89</v>
       </c>
@@ -1540,7 +1779,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>101</v>
       </c>
@@ -1559,19 +1798,19 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +1830,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>96</v>
       </c>
@@ -1611,7 +1850,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>96</v>
       </c>
@@ -1629,7 +1868,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>96</v>
       </c>
@@ -1648,4 +1887,301 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D7AF51-C3EF-43C0-B951-44AC059ECC54}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383E066D-0078-4EFE-B2BC-39166B264190}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="4" width="21.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="7">
+        <v>123</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668B297A-007D-4295-B158-81BF4A2C380E}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16618956-4CC5-4EEF-A631-E6C0045A0B9F}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
+++ b/AndroidAutomation_Farmer/src/main/resources/TestData_FarmerAPK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UI Automation Farmer\AndroidAutomation_Farmer\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neha\Downloads\AndroidAutomation_Updated\AndroidAutomation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D972378-CA13-4879-ADE8-71DFF9919A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD919683-2F65-484F-B6C6-A4899BF3EE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A0974BDA-194C-46DE-AA56-634941102C9E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{A0974BDA-194C-46DE-AA56-634941102C9E}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterCattle" sheetId="1" r:id="rId1"/>
@@ -18,27 +18,24 @@
     <sheet name="AddInsemination" sheetId="3" r:id="rId3"/>
     <sheet name="AddPD" sheetId="4" r:id="rId4"/>
     <sheet name="AddCalving" sheetId="5" r:id="rId5"/>
+    <sheet name="AddDeworming" sheetId="6" r:id="rId6"/>
+    <sheet name="ViewHeatData" sheetId="7" r:id="rId7"/>
+    <sheet name="ViewActivity" sheetId="9" r:id="rId8"/>
+    <sheet name="DeleteActivity" sheetId="8" r:id="rId9"/>
+    <sheet name="EditActivity" sheetId="11" r:id="rId10"/>
+    <sheet name="Edit" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="144">
   <si>
     <t>testcase</t>
   </si>
@@ -350,6 +347,126 @@
   </si>
   <si>
     <t>RegisterCattle_Bull1</t>
+  </si>
+  <si>
+    <t>RegisterCattle_Heifer1</t>
+  </si>
+  <si>
+    <t>RegisterCattle_Heifer2</t>
+  </si>
+  <si>
+    <t>RegisterCattle_MilkingorDryCattle1</t>
+  </si>
+  <si>
+    <t>RegisterCattle_MilkingorDryCattle2</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>SAG</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>pqr</t>
+  </si>
+  <si>
+    <t>AddDeworming_Cattle</t>
+  </si>
+  <si>
+    <t>CattleName</t>
+  </si>
+  <si>
+    <t>Felbendazole</t>
+  </si>
+  <si>
+    <t>Dewormer</t>
+  </si>
+  <si>
+    <t>ViewHeatData_Milking</t>
+  </si>
+  <si>
+    <t>HeatType</t>
+  </si>
+  <si>
+    <t>am</t>
+  </si>
+  <si>
+    <t>16 Nov 2021</t>
+  </si>
+  <si>
+    <t>DeleteActivity_Heat</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ViewActivity_Insemination</t>
+  </si>
+  <si>
+    <t>Bull_ID</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>20 Nov 2021</t>
+  </si>
+  <si>
+    <t>DeleteActivity_Insemination</t>
+  </si>
+  <si>
+    <t>ViewActivity_Calving</t>
+  </si>
+  <si>
+    <t>Alx</t>
+  </si>
+  <si>
+    <t>17 Dec 2021</t>
+  </si>
+  <si>
+    <t>ViewActivity_CalvingData</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>TagNumber</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>cow1</t>
+  </si>
+  <si>
+    <t>Gir</t>
+  </si>
+  <si>
+    <t>Dam</t>
+  </si>
+  <si>
+    <t>8841</t>
+  </si>
+  <si>
+    <t>6450</t>
+  </si>
+  <si>
+    <t>cowx</t>
+  </si>
+  <si>
+    <t>EditActivity_CattleProfile</t>
+  </si>
+  <si>
+    <t>Edit_DryPeriod</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
 </sst>
 </file>
@@ -420,13 +537,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,15 +875,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B191212-D0EB-4F91-9304-4EC4F684A4DE}">
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="33" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,58 +906,62 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -848,38 +986,40 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>18</v>
@@ -902,34 +1042,36 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
@@ -952,13 +1094,13 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -970,8 +1112,10 @@
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>62</v>
       </c>
@@ -990,52 +1134,54 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="Q5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1054,46 +1200,48 @@
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="2"/>
+      <c r="L6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="2"/>
+      <c r="O6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
+      <c r="W6" s="2"/>
+      <c r="X6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1110,48 +1258,50 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="K7" s="3"/>
       <c r="L7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="2"/>
+      <c r="X7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>103</v>
       </c>
@@ -1173,10 +1323,10 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1190,8 +1340,10 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>68</v>
       </c>
@@ -1215,10 +1367,10 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3"/>
+      <c r="K9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1232,8 +1384,10 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>71</v>
       </c>
@@ -1253,12 +1407,14 @@
         <v>45</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="I10" s="3"/>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3"/>
+      <c r="K10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1272,8 +1428,10 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>67</v>
       </c>
@@ -1292,43 +1450,180 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="K11" s="3"/>
       <c r="L11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="2"/>
+      <c r="S11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="T11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W11" s="2" t="s">
+      <c r="X11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="Z11" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02DF8867-CE10-4DBD-A4B3-98C41714B37F}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F7CCFF4-A694-4357-B849-072D720C29BC}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="12">
+        <v>44535</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1340,14 +1635,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1656,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1376,7 +1671,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1404,16 +1699,16 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1728,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>83</v>
       </c>
@@ -1453,7 +1748,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>83</v>
       </c>
@@ -1471,7 +1766,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>99</v>
       </c>
@@ -1501,13 +1796,13 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" customWidth="1"/>
-    <col min="2" max="3" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="3" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1813,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>89</v>
       </c>
@@ -1529,7 +1824,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>89</v>
       </c>
@@ -1540,7 +1835,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>101</v>
       </c>
@@ -1559,19 +1854,19 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1591,7 +1886,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>96</v>
       </c>
@@ -1611,7 +1906,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>96</v>
       </c>
@@ -1629,7 +1924,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>96</v>
       </c>
@@ -1648,4 +1943,301 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D7AF51-C3EF-43C0-B951-44AC059ECC54}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383E066D-0078-4EFE-B2BC-39166B264190}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="4" width="21.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="18" style="10" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="7">
+        <v>123</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="7">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9">
+        <v>40</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668B297A-007D-4295-B158-81BF4A2C380E}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16618956-4CC5-4EEF-A631-E6C0045A0B9F}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>